--- a/result/God_4.xlsx
+++ b/result/God_4.xlsx
@@ -735,19 +735,19 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>53</v>
       </c>
       <c r="E2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F2">
         <v>50</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>52</v>
@@ -765,40 +765,40 @@
         <v>68</v>
       </c>
       <c r="M2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P2">
         <v>74</v>
       </c>
       <c r="Q2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R2">
         <v>84</v>
       </c>
       <c r="S2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="V2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W2">
         <v>45</v>
       </c>
       <c r="X2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y2">
         <v>57</v>
@@ -807,55 +807,55 @@
         <v>84</v>
       </c>
       <c r="AA2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AB2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AC2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD2">
+        <v>51</v>
+      </c>
+      <c r="AE2">
+        <v>55</v>
+      </c>
+      <c r="AF2">
+        <v>59</v>
+      </c>
+      <c r="AG2">
         <v>54</v>
       </c>
-      <c r="AE2">
-        <v>53</v>
-      </c>
-      <c r="AF2">
-        <v>58</v>
-      </c>
-      <c r="AG2">
-        <v>55</v>
-      </c>
       <c r="AH2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ2">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AK2">
         <v>71</v>
       </c>
       <c r="AL2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AN2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AO2">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="AP2">
         <v>81</v>
       </c>
       <c r="AQ2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AR2">
         <v>88</v>
@@ -864,25 +864,25 @@
         <v>58</v>
       </c>
       <c r="AT2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AU2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AV2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW2">
         <v>58</v>
       </c>
       <c r="AX2">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AY2">
         <v>64</v>
       </c>
       <c r="AZ2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:52">
@@ -893,28 +893,28 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F3">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3">
         <v>57</v>
       </c>
       <c r="H3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3">
         <v>59</v>
@@ -923,31 +923,31 @@
         <v>71</v>
       </c>
       <c r="M3">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O3">
         <v>60</v>
       </c>
       <c r="P3">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q3">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="R3">
         <v>78</v>
       </c>
       <c r="S3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V3">
         <v>57</v>
@@ -956,88 +956,88 @@
         <v>52</v>
       </c>
       <c r="X3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z3">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AA3">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB3">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC3">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AD3">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="AE3">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AF3">
         <v>56</v>
       </c>
       <c r="AG3">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AH3">
         <v>48</v>
       </c>
       <c r="AI3">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ3">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AK3">
         <v>71</v>
       </c>
       <c r="AL3">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AM3">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AN3">
         <v>64</v>
       </c>
       <c r="AO3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP3">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AQ3">
         <v>80</v>
       </c>
       <c r="AR3">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AS3">
         <v>65</v>
       </c>
       <c r="AT3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU3">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AV3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AW3">
         <v>61</v>
       </c>
       <c r="AX3">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AY3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AZ3">
         <v>70</v>
@@ -1680,157 +1680,157 @@
         <v>58</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C8">
+        <v>54</v>
+      </c>
+      <c r="D8">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>71</v>
+      </c>
+      <c r="F8">
+        <v>39</v>
+      </c>
+      <c r="G8">
+        <v>45</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>53</v>
+      </c>
+      <c r="J8">
+        <v>45</v>
+      </c>
+      <c r="K8">
+        <v>51</v>
+      </c>
+      <c r="L8">
+        <v>56</v>
+      </c>
+      <c r="M8">
+        <v>61</v>
+      </c>
+      <c r="N8">
         <v>58</v>
       </c>
-      <c r="D8">
-        <v>51</v>
-      </c>
-      <c r="E8">
-        <v>75</v>
-      </c>
-      <c r="F8">
-        <v>41</v>
-      </c>
-      <c r="G8">
+      <c r="O8">
+        <v>44</v>
+      </c>
+      <c r="P8">
+        <v>59</v>
+      </c>
+      <c r="Q8">
         <v>49</v>
       </c>
-      <c r="H8">
+      <c r="R8">
+        <v>65</v>
+      </c>
+      <c r="S8">
+        <v>65</v>
+      </c>
+      <c r="T8">
+        <v>60</v>
+      </c>
+      <c r="U8">
+        <v>52</v>
+      </c>
+      <c r="V8">
+        <v>47</v>
+      </c>
+      <c r="W8">
+        <v>33</v>
+      </c>
+      <c r="X8">
+        <v>50</v>
+      </c>
+      <c r="Y8">
+        <v>44</v>
+      </c>
+      <c r="Z8">
+        <v>70</v>
+      </c>
+      <c r="AA8">
+        <v>58</v>
+      </c>
+      <c r="AB8">
         <v>43</v>
       </c>
-      <c r="I8">
-        <v>58</v>
-      </c>
-      <c r="J8">
-        <v>49</v>
-      </c>
-      <c r="K8">
-        <v>55</v>
-      </c>
-      <c r="L8">
-        <v>61</v>
-      </c>
-      <c r="M8">
-        <v>65</v>
-      </c>
-      <c r="N8">
-        <v>62</v>
-      </c>
-      <c r="O8">
-        <v>47</v>
-      </c>
-      <c r="P8">
-        <v>65</v>
-      </c>
-      <c r="Q8">
+      <c r="AC8">
         <v>56</v>
       </c>
-      <c r="R8">
-        <v>67</v>
-      </c>
-      <c r="S8">
-        <v>69</v>
-      </c>
-      <c r="T8">
-        <v>64</v>
-      </c>
-      <c r="U8">
-        <v>54</v>
-      </c>
-      <c r="V8">
-        <v>50</v>
-      </c>
-      <c r="W8">
-        <v>36</v>
-      </c>
-      <c r="X8">
-        <v>55</v>
-      </c>
-      <c r="Y8">
-        <v>49</v>
-      </c>
-      <c r="Z8">
-        <v>72</v>
-      </c>
-      <c r="AA8">
-        <v>62</v>
-      </c>
-      <c r="AB8">
-        <v>46</v>
-      </c>
-      <c r="AC8">
-        <v>62</v>
-      </c>
       <c r="AD8">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AE8">
         <v>43</v>
       </c>
       <c r="AF8">
+        <v>45</v>
+      </c>
+      <c r="AG8">
+        <v>47</v>
+      </c>
+      <c r="AH8">
+        <v>36</v>
+      </c>
+      <c r="AI8">
+        <v>64</v>
+      </c>
+      <c r="AJ8">
+        <v>54</v>
+      </c>
+      <c r="AK8">
+        <v>54</v>
+      </c>
+      <c r="AL8">
+        <v>65</v>
+      </c>
+      <c r="AM8">
+        <v>52</v>
+      </c>
+      <c r="AN8">
         <v>48</v>
       </c>
-      <c r="AG8">
-        <v>54</v>
-      </c>
-      <c r="AH8">
-        <v>39</v>
-      </c>
-      <c r="AI8">
-        <v>68</v>
-      </c>
-      <c r="AJ8">
-        <v>62</v>
-      </c>
-      <c r="AK8">
-        <v>58</v>
-      </c>
-      <c r="AL8">
-        <v>72</v>
-      </c>
-      <c r="AM8">
-        <v>56</v>
-      </c>
-      <c r="AN8">
+      <c r="AO8">
+        <v>37</v>
+      </c>
+      <c r="AP8">
+        <v>70</v>
+      </c>
+      <c r="AQ8">
         <v>52</v>
       </c>
-      <c r="AO8">
+      <c r="AR8">
+        <v>76</v>
+      </c>
+      <c r="AS8">
+        <v>50</v>
+      </c>
+      <c r="AT8">
+        <v>50</v>
+      </c>
+      <c r="AU8">
         <v>43</v>
       </c>
-      <c r="AP8">
-        <v>77</v>
-      </c>
-      <c r="AQ8">
-        <v>56</v>
-      </c>
-      <c r="AR8">
-        <v>82</v>
-      </c>
-      <c r="AS8">
-        <v>54</v>
-      </c>
-      <c r="AT8">
-        <v>57</v>
-      </c>
-      <c r="AU8">
-        <v>42</v>
-      </c>
       <c r="AV8">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AW8">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AX8">
         <v>100</v>
       </c>
       <c r="AY8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AZ8">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:52">
@@ -1841,154 +1841,154 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>83</v>
       </c>
       <c r="F9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9">
         <v>52</v>
       </c>
       <c r="I9">
+        <v>67</v>
+      </c>
+      <c r="J9">
+        <v>54</v>
+      </c>
+      <c r="K9">
+        <v>56</v>
+      </c>
+      <c r="L9">
+        <v>73</v>
+      </c>
+      <c r="M9">
+        <v>53</v>
+      </c>
+      <c r="N9">
+        <v>61</v>
+      </c>
+      <c r="O9">
         <v>50</v>
       </c>
-      <c r="J9">
-        <v>55</v>
-      </c>
-      <c r="K9">
-        <v>57</v>
-      </c>
-      <c r="L9">
+      <c r="P9">
+        <v>70</v>
+      </c>
+      <c r="Q9">
+        <v>52</v>
+      </c>
+      <c r="R9">
         <v>74</v>
       </c>
-      <c r="M9">
+      <c r="S9">
+        <v>80</v>
+      </c>
+      <c r="T9">
+        <v>70</v>
+      </c>
+      <c r="U9">
+        <v>63</v>
+      </c>
+      <c r="V9">
         <v>56</v>
       </c>
-      <c r="N9">
-        <v>62</v>
-      </c>
-      <c r="O9">
-        <v>51</v>
-      </c>
-      <c r="P9">
-        <v>72</v>
-      </c>
-      <c r="Q9">
-        <v>54</v>
-      </c>
-      <c r="R9">
-        <v>72</v>
-      </c>
-      <c r="S9">
-        <v>85</v>
-      </c>
-      <c r="T9">
+      <c r="W9">
+        <v>43</v>
+      </c>
+      <c r="X9">
+        <v>58</v>
+      </c>
+      <c r="Y9">
+        <v>50</v>
+      </c>
+      <c r="Z9">
         <v>71</v>
       </c>
-      <c r="U9">
-        <v>53</v>
-      </c>
-      <c r="V9">
-        <v>55</v>
-      </c>
-      <c r="W9">
-        <v>45</v>
-      </c>
-      <c r="X9">
-        <v>59</v>
-      </c>
-      <c r="Y9">
-        <v>51</v>
-      </c>
-      <c r="Z9">
-        <v>70</v>
-      </c>
       <c r="AA9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB9">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC9">
         <v>65</v>
       </c>
       <c r="AD9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE9">
+        <v>37</v>
+      </c>
+      <c r="AF9">
+        <v>50</v>
+      </c>
+      <c r="AG9">
+        <v>52</v>
+      </c>
+      <c r="AH9">
         <v>40</v>
       </c>
-      <c r="AF9">
-        <v>51</v>
-      </c>
-      <c r="AG9">
+      <c r="AI9">
+        <v>72</v>
+      </c>
+      <c r="AJ9">
+        <v>40</v>
+      </c>
+      <c r="AK9">
         <v>56</v>
       </c>
-      <c r="AH9">
-        <v>41</v>
-      </c>
-      <c r="AI9">
-        <v>74</v>
-      </c>
-      <c r="AJ9">
-        <v>49</v>
-      </c>
-      <c r="AK9">
-        <v>57</v>
-      </c>
       <c r="AL9">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AM9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AN9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AO9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AP9">
         <v>72</v>
       </c>
       <c r="AQ9">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AR9">
         <v>88</v>
       </c>
       <c r="AS9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AT9">
         <v>49</v>
       </c>
       <c r="AU9">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="AV9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AW9">
         <v>51</v>
       </c>
       <c r="AX9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AY9">
         <v>52</v>
       </c>
       <c r="AZ9">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:52">
@@ -1999,100 +1999,100 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H10">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I10">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J10">
         <v>54</v>
       </c>
       <c r="K10">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L10">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M10">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q10">
         <v>65</v>
       </c>
       <c r="R10">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X10">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y10">
+        <v>63</v>
+      </c>
+      <c r="Z10">
+        <v>88</v>
+      </c>
+      <c r="AA10">
+        <v>76</v>
+      </c>
+      <c r="AB10">
+        <v>60</v>
+      </c>
+      <c r="AC10">
         <v>62</v>
-      </c>
-      <c r="Z10">
-        <v>86</v>
-      </c>
-      <c r="AA10">
-        <v>74</v>
-      </c>
-      <c r="AB10">
-        <v>58</v>
-      </c>
-      <c r="AC10">
-        <v>65</v>
       </c>
       <c r="AD10">
         <v>57</v>
       </c>
       <c r="AE10">
+        <v>54</v>
+      </c>
+      <c r="AF10">
+        <v>55</v>
+      </c>
+      <c r="AG10">
+        <v>76</v>
+      </c>
+      <c r="AH10">
         <v>49</v>
-      </c>
-      <c r="AF10">
-        <v>54</v>
-      </c>
-      <c r="AG10">
-        <v>67</v>
-      </c>
-      <c r="AH10">
-        <v>48</v>
       </c>
       <c r="AI10">
         <v>74</v>
@@ -2101,52 +2101,52 @@
         <v>62</v>
       </c>
       <c r="AK10">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AL10">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AM10">
         <v>59</v>
       </c>
       <c r="AN10">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AO10">
         <v>57</v>
       </c>
       <c r="AP10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AQ10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AR10">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AS10">
         <v>63</v>
       </c>
       <c r="AT10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AU10">
         <v>51</v>
       </c>
       <c r="AV10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AW10">
         <v>59</v>
       </c>
       <c r="AX10">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AY10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AZ10">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:52">
@@ -2154,31 +2154,31 @@
         <v>61</v>
       </c>
       <c r="B11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C11">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11">
         <v>100</v>
       </c>
       <c r="F11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>58</v>
       </c>
       <c r="H11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11">
         <v>56</v>
@@ -2187,34 +2187,34 @@
         <v>66</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N11">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O11">
         <v>56</v>
       </c>
       <c r="P11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q11">
         <v>68</v>
       </c>
       <c r="R11">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="S11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W11">
         <v>44</v>
@@ -2223,31 +2223,31 @@
         <v>64</v>
       </c>
       <c r="Y11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z11">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AA11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB11">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AC11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AD11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AE11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF11">
         <v>52</v>
       </c>
       <c r="AG11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AH11">
         <v>49</v>
@@ -2256,31 +2256,31 @@
         <v>72</v>
       </c>
       <c r="AJ11">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="AK11">
         <v>66</v>
       </c>
       <c r="AL11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AN11">
         <v>56</v>
       </c>
       <c r="AO11">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AP11">
         <v>81</v>
       </c>
       <c r="AQ11">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="AR11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AS11">
         <v>65</v>
@@ -2295,16 +2295,16 @@
         <v>43</v>
       </c>
       <c r="AW11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AX11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AY11">
         <v>57</v>
       </c>
       <c r="AZ11">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:52">
@@ -2315,7 +2315,7 @@
         <v>100</v>
       </c>
       <c r="C12">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>66</v>
@@ -2324,31 +2324,31 @@
         <v>98</v>
       </c>
       <c r="F12">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12">
         <v>64</v>
       </c>
       <c r="H12">
+        <v>58</v>
+      </c>
+      <c r="I12">
+        <v>72</v>
+      </c>
+      <c r="J12">
+        <v>60</v>
+      </c>
+      <c r="K12">
+        <v>62</v>
+      </c>
+      <c r="L12">
+        <v>76</v>
+      </c>
+      <c r="M12">
         <v>59</v>
       </c>
-      <c r="I12">
-        <v>73</v>
-      </c>
-      <c r="J12">
-        <v>61</v>
-      </c>
-      <c r="K12">
-        <v>63</v>
-      </c>
-      <c r="L12">
-        <v>78</v>
-      </c>
-      <c r="M12">
-        <v>61</v>
-      </c>
       <c r="N12">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O12">
         <v>61</v>
@@ -2357,7 +2357,7 @@
         <v>80</v>
       </c>
       <c r="Q12">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R12">
         <v>88</v>
@@ -2366,10 +2366,10 @@
         <v>90</v>
       </c>
       <c r="T12">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U12">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="V12">
         <v>62</v>
@@ -2378,76 +2378,76 @@
         <v>57</v>
       </c>
       <c r="X12">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y12">
         <v>63</v>
       </c>
       <c r="Z12">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AA12">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB12">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC12">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD12">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE12">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF12">
         <v>61</v>
       </c>
       <c r="AG12">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH12">
         <v>51</v>
       </c>
       <c r="AI12">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ12">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK12">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AL12">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AM12">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AN12">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AO12">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP12">
         <v>86</v>
       </c>
       <c r="AQ12">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AR12">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS12">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AT12">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AU12">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AV12">
         <v>49</v>
@@ -2456,13 +2456,13 @@
         <v>60</v>
       </c>
       <c r="AX12">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY12">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AZ12">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:52">
@@ -2473,28 +2473,28 @@
         <v>92</v>
       </c>
       <c r="C13">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D13">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G13">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I13">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J13">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K13">
         <v>63</v>
@@ -2503,124 +2503,124 @@
         <v>80</v>
       </c>
       <c r="M13">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N13">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O13">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P13">
         <v>83</v>
       </c>
       <c r="Q13">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R13">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S13">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T13">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U13">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="V13">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="W13">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X13">
         <v>73</v>
       </c>
       <c r="Y13">
+        <v>62</v>
+      </c>
+      <c r="Z13">
+        <v>96</v>
+      </c>
+      <c r="AA13">
+        <v>74</v>
+      </c>
+      <c r="AB13">
+        <v>79</v>
+      </c>
+      <c r="AC13">
+        <v>78</v>
+      </c>
+      <c r="AD13">
+        <v>52</v>
+      </c>
+      <c r="AE13">
         <v>63</v>
       </c>
-      <c r="Z13">
-        <v>94</v>
-      </c>
-      <c r="AA13">
+      <c r="AF13">
+        <v>60</v>
+      </c>
+      <c r="AG13">
         <v>75</v>
       </c>
-      <c r="AB13">
-        <v>90</v>
-      </c>
-      <c r="AC13">
-        <v>81</v>
-      </c>
-      <c r="AD13">
-        <v>54</v>
-      </c>
-      <c r="AE13">
+      <c r="AH13">
+        <v>52</v>
+      </c>
+      <c r="AI13">
+        <v>78</v>
+      </c>
+      <c r="AJ13">
+        <v>74</v>
+      </c>
+      <c r="AK13">
+        <v>70</v>
+      </c>
+      <c r="AL13">
+        <v>91</v>
+      </c>
+      <c r="AM13">
+        <v>66</v>
+      </c>
+      <c r="AN13">
+        <v>66</v>
+      </c>
+      <c r="AO13">
+        <v>61</v>
+      </c>
+      <c r="AP13">
+        <v>84</v>
+      </c>
+      <c r="AQ13">
+        <v>84</v>
+      </c>
+      <c r="AR13">
+        <v>84</v>
+      </c>
+      <c r="AS13">
+        <v>65</v>
+      </c>
+      <c r="AT13">
         <v>64</v>
       </c>
-      <c r="AF13">
-        <v>62</v>
-      </c>
-      <c r="AG13">
-        <v>76</v>
-      </c>
-      <c r="AH13">
-        <v>53</v>
-      </c>
-      <c r="AI13">
-        <v>79</v>
-      </c>
-      <c r="AJ13">
-        <v>98</v>
-      </c>
-      <c r="AK13">
-        <v>72</v>
-      </c>
-      <c r="AL13">
-        <v>93</v>
-      </c>
-      <c r="AM13">
-        <v>67</v>
-      </c>
-      <c r="AN13">
-        <v>67</v>
-      </c>
-      <c r="AO13">
-        <v>61</v>
-      </c>
-      <c r="AP13">
-        <v>87</v>
-      </c>
-      <c r="AQ13">
-        <v>85</v>
-      </c>
-      <c r="AR13">
-        <v>86</v>
-      </c>
-      <c r="AS13">
-        <v>67</v>
-      </c>
-      <c r="AT13">
-        <v>66</v>
-      </c>
       <c r="AU13">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="AV13">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AW13">
         <v>64</v>
       </c>
       <c r="AX13">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AY13">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AZ13">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
